--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id|行号</t>
   </si>
@@ -63,6 +63,22 @@
   </si>
   <si>
     <t>爱心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +173,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,6 +569,40 @@
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1598310000</v>
+      </c>
+      <c r="D6">
+        <v>1598889599</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1598916600</v>
+      </c>
+      <c r="D7">
+        <v>1599494399</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>id|行号</t>
   </si>
@@ -78,7 +78,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>免费抽奖券</t>
+    <t>|备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在不停服的维护中，若要两次删除同一道具，需要分开配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋阳光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费抽奖券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,6 +182,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -173,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -471,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,7 +516,7 @@
     <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +532,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -519,8 +552,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -537,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -554,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -571,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -588,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,13 +632,30 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1598916600</v>
+        <v>1599523200</v>
       </c>
       <c r="D7">
-        <v>1599494399</v>
+        <v>1600099199</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1599523200</v>
+      </c>
+      <c r="D8">
+        <v>1600099199</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>id|行号</t>
   </si>
@@ -95,6 +95,78 @@
   </si>
   <si>
     <t>免费话费抽奖券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +210,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +241,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,7 +291,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +315,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,6 +756,159 @@
       </c>
       <c r="E8" s="6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1600128000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1600703999</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player_prop|道具表" sheetId="1" r:id="rId1"/>
-    <sheet name="player_asset|资产表" sheetId="2" r:id="rId2"/>
+    <sheet name="player_ext_status|状态扩展" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>|状态数据描述</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -922,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -939,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -948,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="player_prop|道具表" sheetId="1" r:id="rId1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -774,10 +774,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D9" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>30</v>
@@ -791,10 +791,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D10" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -808,10 +808,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D11" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>32</v>
@@ -825,10 +825,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D12" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>33</v>
@@ -842,10 +842,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D13" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>34</v>
@@ -859,10 +859,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D14" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>35</v>
@@ -876,10 +876,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D15" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>36</v>
@@ -893,10 +893,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D16" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>37</v>
@@ -910,10 +910,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="10">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="D17" s="10">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>38</v>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,7 +743,7 @@
         <v>1599523200</v>
       </c>
       <c r="D7">
-        <v>1600099199</v>
+        <v>1603123199</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>id|行号</t>
   </si>
@@ -175,6 +175,13 @@
   </si>
   <si>
     <t>|状态数据描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+  </si>
+  <si>
+    <t>重阳节抽奖</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +239,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +312,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -917,6 +936,23 @@
       </c>
       <c r="E17" s="9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1603152000</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1603727999</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>id|行号</t>
   </si>
@@ -47,153 +47,224 @@
   </si>
   <si>
     <t>prop_carnation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_shovel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五一铲子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_love</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>爱心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>爱心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_mfcjq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>|备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果在不停服的维护中，若要两次删除同一道具，需要分开配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>幸运彩蛋阳光</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>免费话费抽奖券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>type|类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>|状态数据描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>prop_cyj_cjq</t>
   </si>
   <si>
     <t>重阳节抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_cjlb_1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_cjlb_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>万圣节抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,16 +387,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -328,29 +405,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,8 +1044,110 @@
         <v>42</v>
       </c>
     </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1603756800</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1604332799</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -996,7 +1187,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>id|行号</t>
   </si>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>万圣节抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +318,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +403,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,8 +452,23 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,10 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,7 +759,7 @@
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -765,7 +795,7 @@
       <c r="D2" s="4">
         <v>1591635600</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -785,7 +815,7 @@
       <c r="D3">
         <v>1589216400</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -802,7 +832,7 @@
       <c r="D4">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -819,7 +849,7 @@
       <c r="D5">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -836,7 +866,7 @@
       <c r="D6">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -853,7 +883,7 @@
       <c r="D7">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -870,7 +900,7 @@
       <c r="D8">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1057,7 +1087,7 @@
       <c r="D19" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1074,7 +1104,7 @@
       <c r="D20" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1091,7 +1121,7 @@
       <c r="D21" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1108,7 +1138,7 @@
       <c r="D22" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1125,7 +1155,7 @@
       <c r="D23" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1142,8 +1172,25 @@
       <c r="D24" s="15">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1604966400</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1605542399</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -318,7 +318,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -403,7 +409,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,9 +440,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +471,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,7 +774,7 @@
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -795,7 +810,7 @@
       <c r="D2" s="4">
         <v>1591635600</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -815,7 +830,7 @@
       <c r="D3">
         <v>1589216400</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -832,7 +847,7 @@
       <c r="D4">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -849,7 +864,7 @@
       <c r="D5">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -866,7 +881,7 @@
       <c r="D6">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -883,7 +898,7 @@
       <c r="D7">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -900,7 +915,7 @@
       <c r="D8">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -911,11 +926,11 @@
       <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1603123199</v>
+      <c r="C9" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>30</v>
@@ -928,11 +943,11 @@
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1603123199</v>
+      <c r="C10" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -945,11 +960,11 @@
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1603123199</v>
+      <c r="C11" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>32</v>
@@ -962,11 +977,11 @@
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1603123199</v>
+      <c r="C12" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>33</v>
@@ -979,11 +994,11 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1603123199</v>
+      <c r="C13" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>34</v>
@@ -996,11 +1011,11 @@
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1603123199</v>
+      <c r="C14" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>35</v>
@@ -1013,11 +1028,11 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1603123199</v>
+      <c r="C15" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>36</v>
@@ -1030,11 +1045,11 @@
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1603123199</v>
+      <c r="C16" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>37</v>
@@ -1047,151 +1062,187 @@
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1603123199</v>
+      <c r="C17" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>1603727999</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
+    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
+    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
+    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+    <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
+    <row r="25" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="26" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="2:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="2:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="E34" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>id|行号</t>
   </si>
@@ -255,12 +255,44 @@
     <t>双十一抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>prop_gej_hj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_xy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_ss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_cs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩季火鸡道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节史诗宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节传说宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节稀有宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +349,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,25 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +436,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,64 +452,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,17 +779,17 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,7 +808,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -801,7 +816,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
@@ -810,7 +825,7 @@
       <c r="D2" s="4">
         <v>1591635600</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -821,7 +836,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -830,7 +845,7 @@
       <c r="D3">
         <v>1589216400</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -838,7 +853,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -847,7 +862,7 @@
       <c r="D4">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -855,7 +870,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5">
@@ -864,7 +879,7 @@
       <c r="D5">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -872,7 +887,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C6">
@@ -881,7 +896,7 @@
       <c r="D6">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -889,7 +904,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C7">
@@ -898,7 +913,7 @@
       <c r="D7">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -906,7 +921,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C8">
@@ -915,7 +930,7 @@
       <c r="D8">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -923,16 +938,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -940,16 +955,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -957,16 +972,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -974,16 +989,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -991,16 +1006,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1008,16 +1023,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1025,16 +1040,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1042,16 +1057,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1059,190 +1074,242 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="10">
         <v>1605571200</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="10">
         <v>1606147199</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>1603727999</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
+    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>1603756800</v>
       </c>
       <c r="D19" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
+    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>1603756800</v>
       </c>
       <c r="D20" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
+    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>1603756800</v>
       </c>
       <c r="D21" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
+    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>1603756800</v>
       </c>
       <c r="D22" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>1603756800</v>
       </c>
       <c r="D23" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
+    <row r="24" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>1603756800</v>
       </c>
       <c r="D24" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18">
+    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="11">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="11">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="2:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="2:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
-      <c r="E34" s="24"/>
+    <row r="26" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1606176000</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1606751999</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1606176000</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1606751999</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1606176000</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1606751999</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1606176000</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1606751999</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="20"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="20"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="2:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="20"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="2:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="20"/>
+      <c r="E34" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>id|行号</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>感恩节稀有宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_lh</t>
+  </si>
+  <si>
+    <t>双十二礼盒掉落物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +372,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +457,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,9 +485,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +514,54 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,16 +843,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="31" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -799,16 +862,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -816,16 +879,16 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="28">
         <v>1591635600</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -836,16 +899,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="31">
         <v>1588633200</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="23">
         <v>1589216400</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -853,16 +916,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="31">
         <v>1588028400</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -870,16 +933,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="31">
         <v>1589844600</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="23">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -887,16 +950,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="31">
         <v>1598310000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -904,16 +967,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="31">
         <v>1599523200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="23">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -921,16 +984,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="31">
         <v>1599523200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -938,16 +1001,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -955,16 +1018,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -972,16 +1035,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -989,16 +1052,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1006,16 +1069,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1023,16 +1086,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1040,16 +1103,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1057,16 +1120,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1074,242 +1137,274 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="3">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="22">
         <v>1603727999</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="3">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="22">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+    <row r="26" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+    <row r="27" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+    <row r="28" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
+    <row r="29" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="20"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="20"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="20"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="20"/>
-      <c r="E34" s="12"/>
+    <row r="30" spans="1:5" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1607385600</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1607961599</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1607385600</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1607961599</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="18"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="18"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>id|行号</t>
   </si>
@@ -300,6 +300,14 @@
   </si>
   <si>
     <t>双十二抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子掉落物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +380,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -457,7 +471,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +576,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,7 +872,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,11 +1417,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="18"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="10"/>
+    <row r="32" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="37">
+        <v>1607990400</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1608566399</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="18"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>id|行号</t>
   </si>
@@ -308,6 +308,14 @@
   </si>
   <si>
     <t>饺子掉落物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_sd_lh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节礼盒掉落物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -407,12 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +479,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,82 +522,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,19 +879,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="31" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26" style="29" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="22" customWidth="1"/>
     <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -891,10 +902,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -914,7 +925,7 @@
       <c r="C2" s="3">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <v>1591635600</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -931,10 +942,10 @@
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1588633200</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>1589216400</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -948,10 +959,10 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>1588028400</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1588611600</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -965,10 +976,10 @@
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>1589844600</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1590422400</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -982,10 +993,10 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>1598310000</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>1598889599</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -999,10 +1010,10 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>1599523200</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1603123199</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1016,10 +1027,10 @@
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>1599523200</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>1600099199</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1033,11 +1044,11 @@
       <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1606147199</v>
+      <c r="C9" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>30</v>
@@ -1050,11 +1061,11 @@
       <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1606147199</v>
+      <c r="C10" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
@@ -1067,11 +1078,11 @@
       <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1606147199</v>
+      <c r="C11" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>32</v>
@@ -1084,11 +1095,11 @@
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1606147199</v>
+      <c r="C12" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
@@ -1101,11 +1112,11 @@
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1606147199</v>
+      <c r="C13" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>34</v>
@@ -1118,11 +1129,11 @@
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D14" s="24">
-        <v>1606147199</v>
+      <c r="C14" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>35</v>
@@ -1135,11 +1146,11 @@
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1606147199</v>
+      <c r="C15" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -1152,11 +1163,11 @@
       <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1606147199</v>
+      <c r="C16" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>37</v>
@@ -1169,11 +1180,11 @@
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="32">
-        <v>1605571200</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1606147199</v>
+      <c r="C17" s="15">
+        <v>1608595200</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1609171199</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>38</v>
@@ -1189,7 +1200,7 @@
       <c r="C18" s="3">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>1603727999</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -1308,7 +1319,7 @@
       <c r="C25" s="3">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>1605542399</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -1322,10 +1333,10 @@
       <c r="B26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="30">
         <v>1606176000</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="23">
         <v>1606751999</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -1339,10 +1350,10 @@
       <c r="B27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="30">
         <v>1606176000</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="23">
         <v>1606751999</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -1356,10 +1367,10 @@
       <c r="B28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <v>1606176000</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="23">
         <v>1606751999</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -1373,78 +1384,145 @@
       <c r="B29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="30">
         <v>1606176000</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="23">
         <v>1606751999</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="31">
         <v>1607385600</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="24">
         <v>1607961599</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+    <row r="31" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="31">
         <v>1607385600</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="24">
         <v>1607961599</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35">
+    <row r="32" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="34">
         <v>1607990400</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="35">
         <v>1608566399</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="18"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="18"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+    <row r="33" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="39">
+        <v>1608595200</v>
+      </c>
+      <c r="D33" s="39">
+        <v>1609171199</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="40"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="player_prop|道具表" sheetId="1" r:id="rId1"/>
     <sheet name="player_ext_status|状态扩展" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>id|行号</t>
   </si>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>圣诞节礼盒掉落物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_yd_jyb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦金元宝</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +396,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +499,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,31 +536,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -555,13 +572,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -576,31 +596,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,11 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:E42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,7 +917,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="26" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="21" customWidth="1"/>
     <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,7 +945,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
@@ -936,7 +962,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -945,7 +971,7 @@
       <c r="C3" s="29">
         <v>1588633200</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>1589216400</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -953,7 +979,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -962,7 +988,7 @@
       <c r="C4" s="29">
         <v>1588028400</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>1588611600</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -970,7 +996,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -979,7 +1005,7 @@
       <c r="C5" s="29">
         <v>1589844600</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>1590422400</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -987,7 +1013,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -996,7 +1022,7 @@
       <c r="C6" s="29">
         <v>1598310000</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>1598889599</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1004,7 +1030,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1013,7 +1039,7 @@
       <c r="C7" s="29">
         <v>1599523200</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>1603123199</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1021,7 +1047,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1030,7 +1056,7 @@
       <c r="C8" s="29">
         <v>1599523200</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>1600099199</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1038,16 +1064,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="22">
         <v>1609171199</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1055,16 +1081,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="22">
         <v>1609171199</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1072,16 +1098,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="22">
         <v>1609171199</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1089,16 +1115,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="22">
         <v>1609171199</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1106,16 +1132,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="22">
         <v>1609171199</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1123,16 +1149,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="22">
         <v>1609171199</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1140,16 +1166,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="22">
         <v>1609171199</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1157,16 +1183,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="22">
         <v>1609171199</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1174,16 +1200,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="30">
         <v>1608595200</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="22">
         <v>1609171199</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1194,13 +1220,13 @@
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>1603727999</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -1214,11 +1240,11 @@
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1604332799</v>
+      <c r="C19" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1609775999</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>49</v>
@@ -1231,11 +1257,11 @@
       <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1604332799</v>
+      <c r="C20" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1609775999</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>49</v>
@@ -1248,11 +1274,11 @@
       <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1604332799</v>
+      <c r="C21" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1609775999</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>49</v>
@@ -1265,11 +1291,11 @@
       <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1604332799</v>
+      <c r="C22" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1609775999</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>49</v>
@@ -1282,11 +1308,11 @@
       <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1604332799</v>
+      <c r="C23" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1609775999</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>49</v>
@@ -1299,11 +1325,11 @@
       <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3">
-        <v>1603756800</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1604332799</v>
+      <c r="C24" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1609775999</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>49</v>
@@ -1319,129 +1345,129 @@
       <c r="C25" s="3">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+    <row r="26" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="31">
         <v>1606176000</v>
       </c>
       <c r="D26" s="23">
         <v>1606751999</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="31">
         <v>1606176000</v>
       </c>
       <c r="D27" s="23">
         <v>1606751999</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+    <row r="28" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="31">
         <v>1606176000</v>
       </c>
       <c r="D28" s="23">
         <v>1606751999</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+    <row r="29" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="31">
         <v>1606176000</v>
       </c>
       <c r="D29" s="23">
         <v>1606751999</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="18">
+    <row r="30" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="32">
         <v>1607385600</v>
       </c>
       <c r="D30" s="24">
         <v>1607961599</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18">
+    <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="32">
         <v>1607385600</v>
       </c>
       <c r="D31" s="24">
         <v>1607961599</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32">
+    <row r="32" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="35">
         <v>1607990400</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="36">
         <v>1608566399</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="37" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1449,80 +1475,35 @@
       <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="40">
         <v>1608595200</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="40">
         <v>1609171199</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="40"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+    <row r="34" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="41">
+        <v>1609200000</v>
+      </c>
+      <c r="D34" s="41">
+        <v>1609775999</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>id|行号</t>
   </si>
@@ -324,6 +324,22 @@
   </si>
   <si>
     <t>元旦金元宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典星星道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +412,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +473,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -499,7 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +649,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,6 +1531,40 @@
       </c>
       <c r="E34" s="41" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="44">
+        <v>1609804800</v>
+      </c>
+      <c r="D35" s="44">
+        <v>1610380799</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="44">
+        <v>1609804800</v>
+      </c>
+      <c r="D36" s="44">
+        <v>1610380799</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>id|行号</t>
   </si>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -340,6 +336,34 @@
   </si>
   <si>
     <t>庆典礼包抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_csbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_ssbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_xybox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐嘉年庆传说宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐嘉年庆史诗宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐嘉年庆稀有宝箱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +436,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,49 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +503,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,9 +519,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,100 +540,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,20 +834,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -956,615 +857,666 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="11">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="15">
         <v>1591635600</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1588633200</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1589216400</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1588028400</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1588611600</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1589844600</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1590422400</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1610409600</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1610985599</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1603123199</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C8" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="C3" s="29">
-        <v>1588633200</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1589216400</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="C4" s="29">
-        <v>1588028400</v>
-      </c>
-      <c r="D4" s="21">
-        <v>1588611600</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="C5" s="29">
-        <v>1589844600</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1590422400</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="C6" s="29">
-        <v>1598310000</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1598889599</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="C7" s="29">
-        <v>1599523200</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1603123199</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1608595200</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1609171199</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1603152000</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1603727999</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1599523200</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1600099199</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="C9" s="30">
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1604966400</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1605542399</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1606176000</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1606751999</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1606176000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1606751999</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1606176000</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1606751999</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1606176000</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1606751999</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1607385600</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1607961599</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1607385600</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1607961599</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1607990400</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1608566399</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="9">
         <v>1608595200</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D33" s="9">
         <v>1609171199</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E33" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1609200000</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1609775999</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="B35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1609804800</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1610380799</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="B36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1609804800</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1610380799</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1610409600</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1610985599</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="30">
-        <v>1608595200</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1609171199</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="B38" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1610409600</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1610985599</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1603152000</v>
-      </c>
-      <c r="D18" s="20">
-        <v>1603727999</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D19" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D20" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D21" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D22" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D23" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D24" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1604966400</v>
-      </c>
-      <c r="D25" s="20">
-        <v>1605542399</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="31">
-        <v>1606176000</v>
-      </c>
-      <c r="D26" s="23">
-        <v>1606751999</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="31">
-        <v>1606176000</v>
-      </c>
-      <c r="D27" s="23">
-        <v>1606751999</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="31">
-        <v>1606176000</v>
-      </c>
-      <c r="D28" s="23">
-        <v>1606751999</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="31">
-        <v>1606176000</v>
-      </c>
-      <c r="D29" s="23">
-        <v>1606751999</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="32">
-        <v>1607385600</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1607961599</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="32">
-        <v>1607385600</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1607961599</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="35">
-        <v>1607990400</v>
-      </c>
-      <c r="D32" s="36">
-        <v>1608566399</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="40">
-        <v>1608595200</v>
-      </c>
-      <c r="D33" s="40">
-        <v>1609171199</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="41">
-        <v>1609200000</v>
-      </c>
-      <c r="D34" s="41">
-        <v>1609775999</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="44">
-        <v>1609804800</v>
-      </c>
-      <c r="D35" s="44">
-        <v>1610380799</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="44">
-        <v>1609804800</v>
-      </c>
-      <c r="D36" s="44">
-        <v>1610380799</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>73</v>
+      <c r="B39" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1610409600</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1610985599</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1604,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>id|行号</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_hqjnh_csbox</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -364,6 +360,55 @@
   </si>
   <si>
     <t>欢乐嘉年庆稀有宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物通用清除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_fclb_gong</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_xi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_fa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_cai</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字符</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +481,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,11 +885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,13 +1000,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="16">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="D6" s="16">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1472,51 +1523,119 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="16">
+      <c r="B37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="11">
         <v>1610409600</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="11">
         <v>1610985599</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>77</v>
+      <c r="E37" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="16">
+      <c r="B38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="11">
         <v>1610409600</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="11">
         <v>1610985599</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>78</v>
+      <c r="E38" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="16">
+      <c r="B39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="11">
         <v>1610409600</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="11">
         <v>1610985599</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>79</v>
+      <c r="E39" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -554,7 +554,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +607,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,8 +894,8 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,10 +1006,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="16">
-        <v>1611014400</v>
+        <v>1611619200</v>
       </c>
       <c r="D6" s="16">
-        <v>1611590399</v>
+        <v>1612195199</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>79</v>
@@ -1047,16 +1053,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1064,16 +1070,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1081,16 +1087,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1098,16 +1104,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1115,16 +1121,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1132,16 +1138,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1149,16 +1155,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1166,16 +1172,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1183,16 +1189,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11">
-        <v>1608595200</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1609171199</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1612195199</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>37</v>
       </c>
     </row>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,7 +481,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,9 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,10 +612,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,8 +897,8 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,7 +940,7 @@
       <c r="C2" s="11">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1591635600</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1002,16 +1005,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16">
-        <v>1611619200</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1612195199</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="18">
+        <v>1612224000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1612799999</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1053,16 +1056,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1070,16 +1073,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1087,16 +1090,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1104,16 +1107,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1121,16 +1124,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1138,16 +1141,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1155,16 +1158,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1172,16 +1175,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1189,16 +1192,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="11">
         <v>1611619200</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>1612195199</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1342,7 +1345,7 @@
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="11">
@@ -1359,7 +1362,7 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="11">
@@ -1376,7 +1379,7 @@
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="11">
@@ -1393,7 +1396,7 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="11">
@@ -1410,7 +1413,7 @@
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="11">
@@ -1580,16 +1583,16 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1597,16 +1600,16 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1614,16 +1617,16 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1631,16 +1634,16 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>1611014400</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <v>1611590399</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>87</v>
       </c>
     </row>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>id|行号</t>
   </si>
@@ -409,6 +409,78 @@
   </si>
   <si>
     <t>财字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_wn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--年字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--快字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--乐字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--万能字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖券--2.9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--新字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +553,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,19 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +626,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,16 +672,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,16 +1080,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18">
-        <v>1612224000</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1612799999</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1583,16 +1658,16 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="15">
-        <v>1611014400</v>
-      </c>
-      <c r="D40" s="15">
-        <v>1611590399</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1600,16 +1675,16 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="15">
-        <v>1611014400</v>
-      </c>
-      <c r="D41" s="15">
-        <v>1611590399</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1617,16 +1692,16 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="15">
-        <v>1611014400</v>
-      </c>
-      <c r="D42" s="15">
-        <v>1611590399</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="C42" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1634,17 +1709,170 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="15">
-        <v>1611014400</v>
-      </c>
-      <c r="D43" s="15">
-        <v>1611590399</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="C43" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1614038400</v>
+      </c>
+      <c r="D52" s="20">
+        <v>1614614399</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>id|行号</t>
   </si>
@@ -480,7 +480,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>prop_ty_csbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>小汤圆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--传说</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--史诗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--稀有</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +577,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,13 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,25 +690,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,16 +1086,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="16">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="D6" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="E6" s="15" t="s">
+        <v>1615219199</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1658,16 +1664,16 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="D40" s="20">
-        <v>1614009599</v>
-      </c>
-      <c r="E40" s="21" t="s">
+      <c r="C40" s="11">
+        <v>1611014400</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1611590399</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1675,16 +1681,16 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="D41" s="20">
-        <v>1614009599</v>
-      </c>
-      <c r="E41" s="21" t="s">
+      <c r="C41" s="11">
+        <v>1611014400</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1611590399</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1692,16 +1698,16 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="D42" s="20">
-        <v>1614009599</v>
-      </c>
-      <c r="E42" s="21" t="s">
+      <c r="C42" s="11">
+        <v>1611014400</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1611590399</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1709,16 +1715,16 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="D43" s="20">
-        <v>1614009599</v>
-      </c>
-      <c r="E43" s="21" t="s">
+      <c r="C43" s="11">
+        <v>1611014400</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1611590399</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1726,16 +1732,16 @@
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1743,16 +1749,16 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1760,16 +1766,16 @@
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1777,16 +1783,16 @@
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1794,16 +1800,16 @@
       <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1811,16 +1817,16 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1828,16 +1834,16 @@
       <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1845,16 +1851,16 @@
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="D51" s="20">
-        <v>1614009599</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="C51" s="11">
+        <v>1612828800</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1613404799</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1862,17 +1868,68 @@
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="11">
         <v>1614038400</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="11">
         <v>1614614399</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>105</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1615219199</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1615219199</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="16">
+        <v>1614643200</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1615219199</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,13 +690,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,8 +981,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,16 +1089,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16">
-        <v>1614643200</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1615219199</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1137,16 +1140,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1154,16 +1157,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1171,16 +1174,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1188,16 +1191,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1205,16 +1208,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1222,16 +1225,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1239,16 +1242,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1256,16 +1259,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1273,16 +1276,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11">
-        <v>1611619200</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1612195199</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="15">
+        <v>1615248000</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1615823999</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1885,16 +1888,16 @@
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="11">
         <v>1614643200</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="11">
         <v>1615219199</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1902,16 +1905,16 @@
       <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="11">
         <v>1614643200</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="11">
         <v>1615219199</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1919,16 +1922,16 @@
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="11">
         <v>1614643200</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="11">
         <v>1615219199</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="10" t="s">
         <v>111</v>
       </c>
     </row>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,10 +335,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>庆典礼包抽奖券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_hqjnh_csbox</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -505,6 +501,10 @@
   </si>
   <si>
     <t>通用礼包专用--稀有</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,8 +981,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,13 +1093,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="D6" s="15">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1140,16 +1140,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1157,16 +1157,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1174,16 +1174,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1191,16 +1191,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1208,16 +1208,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1225,16 +1225,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1259,16 +1259,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1276,16 +1276,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1599,17 +1599,17 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9">
-        <v>1609804800</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1610380799</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>72</v>
+      <c r="C36" s="18">
+        <v>1615852800</v>
+      </c>
+      <c r="D36" s="18">
+        <v>1616428799</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1617,7 +1617,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="11">
         <v>1610409600</v>
@@ -1626,7 +1626,7 @@
         <v>1610985599</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1634,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11">
         <v>1610409600</v>
@@ -1643,7 +1643,7 @@
         <v>1610985599</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="11">
         <v>1610409600</v>
@@ -1660,7 +1660,7 @@
         <v>1610985599</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1668,7 +1668,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="11">
         <v>1611014400</v>
@@ -1677,7 +1677,7 @@
         <v>1611590399</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="11">
         <v>1611014400</v>
@@ -1694,7 +1694,7 @@
         <v>1611590399</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1702,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="11">
         <v>1611014400</v>
@@ -1711,7 +1711,7 @@
         <v>1611590399</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -1719,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="11">
         <v>1611014400</v>
@@ -1728,7 +1728,7 @@
         <v>1611590399</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1736,7 +1736,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="11">
         <v>1612828800</v>
@@ -1745,7 +1745,7 @@
         <v>1613404799</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1753,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="11">
         <v>1612828800</v>
@@ -1762,7 +1762,7 @@
         <v>1613404799</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="11">
         <v>1612828800</v>
@@ -1779,7 +1779,7 @@
         <v>1613404799</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1787,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="11">
         <v>1612828800</v>
@@ -1796,7 +1796,7 @@
         <v>1613404799</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1804,7 +1804,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="11">
         <v>1612828800</v>
@@ -1813,7 +1813,7 @@
         <v>1613404799</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1821,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="11">
         <v>1612828800</v>
@@ -1830,7 +1830,7 @@
         <v>1613404799</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1838,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="11">
         <v>1612828800</v>
@@ -1847,7 +1847,7 @@
         <v>1613404799</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -1855,7 +1855,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="11">
         <v>1612828800</v>
@@ -1864,7 +1864,7 @@
         <v>1613404799</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -1872,7 +1872,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="11">
         <v>1614038400</v>
@@ -1881,7 +1881,7 @@
         <v>1614614399</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -1889,7 +1889,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="11">
         <v>1614643200</v>
@@ -1898,7 +1898,7 @@
         <v>1615219199</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -1906,7 +1906,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="11">
         <v>1614643200</v>
@@ -1915,7 +1915,7 @@
         <v>1615219199</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -1923,7 +1923,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="11">
         <v>1614643200</v>
@@ -1932,7 +1932,7 @@
         <v>1615219199</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,12 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +975,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="D6" s="15">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>78</v>
@@ -1599,16 +1593,16 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="9">
         <v>1615852800</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="9">
         <v>1616428799</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="10" t="s">
         <v>111</v>
       </c>
     </row>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
   <si>
     <t>id|行号</t>
   </si>
@@ -976,7 +976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="D6" s="15">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>78</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1087,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="D6" s="15">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>78</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>id|行号</t>
   </si>
@@ -976,7 +976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="D6" s="15">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>78</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -423,7 +423,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,13 +444,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -468,48 +461,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,15 +483,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,7 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,9 +507,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +546,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,13 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,10 +582,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,8 +596,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,19 +638,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,13 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,144 +813,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,60 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -943,11 +876,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,6 +940,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,138 +969,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,28 +1131,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1477,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1616,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>16</v>
@@ -1676,16 +1660,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E9" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>23</v>
@@ -1696,16 +1680,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E10" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>25</v>
@@ -1716,16 +1700,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E11" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>27</v>
@@ -1736,16 +1720,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E12" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>29</v>
@@ -1756,16 +1740,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E13" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>31</v>
@@ -1776,16 +1760,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E14" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>33</v>
@@ -1796,16 +1780,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E15" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>35</v>
@@ -1816,16 +1800,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E16" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>37</v>
@@ -1836,16 +1820,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="8">
-        <v>1615248000</v>
+        <v>1620691200</v>
       </c>
       <c r="E17" s="8">
-        <v>1615823999</v>
+        <v>1621267199</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>39</v>
@@ -1878,7 +1862,7 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="15">
@@ -1887,7 +1871,7 @@
       <c r="E19" s="15">
         <v>1609775999</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1898,7 +1882,7 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="15">
@@ -1907,7 +1891,7 @@
       <c r="E20" s="15">
         <v>1609775999</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1918,7 +1902,7 @@
       <c r="B21" s="7">
         <v>0</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="15">
@@ -1927,7 +1911,7 @@
       <c r="E21" s="15">
         <v>1609775999</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1938,7 +1922,7 @@
       <c r="B22" s="7">
         <v>0</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="15">
@@ -1947,7 +1931,7 @@
       <c r="E22" s="15">
         <v>1609775999</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1958,7 +1942,7 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="15">
@@ -1967,7 +1951,7 @@
       <c r="E23" s="15">
         <v>1609775999</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1978,7 +1962,7 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="15">
@@ -1987,7 +1971,7 @@
       <c r="E24" s="15">
         <v>1609775999</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1998,7 +1982,7 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="8">
@@ -2018,7 +2002,7 @@
       <c r="B26" s="7">
         <v>0</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="8">
@@ -2038,7 +2022,7 @@
       <c r="B27" s="7">
         <v>0</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="8">
@@ -2058,7 +2042,7 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="8">
@@ -2078,7 +2062,7 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="8">
@@ -2118,7 +2102,7 @@
       <c r="B31" s="7">
         <v>0</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="8">
@@ -2138,7 +2122,7 @@
       <c r="B32" s="7">
         <v>0</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="8">
@@ -2158,7 +2142,7 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="15">
@@ -2178,7 +2162,7 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="15">
@@ -2198,7 +2182,7 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="15">
@@ -2216,9 +2200,9 @@
         <v>35</v>
       </c>
       <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="15">
@@ -2227,7 +2211,7 @@
       <c r="E36" s="15">
         <v>1620662399</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2238,7 +2222,7 @@
       <c r="B37" s="7">
         <v>0</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="8">
@@ -2247,7 +2231,7 @@
       <c r="E37" s="8">
         <v>1610985599</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2258,7 +2242,7 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="8">
@@ -2267,7 +2251,7 @@
       <c r="E38" s="8">
         <v>1610985599</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2278,7 +2262,7 @@
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="8">
@@ -2287,7 +2271,7 @@
       <c r="E39" s="8">
         <v>1610985599</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2298,7 +2282,7 @@
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="8">
@@ -2307,7 +2291,7 @@
       <c r="E40" s="8">
         <v>1611590399</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2318,7 +2302,7 @@
       <c r="B41" s="7">
         <v>0</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="8">
@@ -2327,7 +2311,7 @@
       <c r="E41" s="8">
         <v>1611590399</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2338,7 +2322,7 @@
       <c r="B42" s="7">
         <v>0</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="8">
@@ -2347,7 +2331,7 @@
       <c r="E42" s="8">
         <v>1611590399</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2358,7 +2342,7 @@
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="8">
@@ -2367,7 +2351,7 @@
       <c r="E43" s="8">
         <v>1611590399</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2387,7 +2371,7 @@
       <c r="E44" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2407,7 +2391,7 @@
       <c r="E45" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2427,7 +2411,7 @@
       <c r="E46" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2447,7 +2431,7 @@
       <c r="E47" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2467,7 +2451,7 @@
       <c r="E48" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2487,7 +2471,7 @@
       <c r="E49" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2507,7 +2491,7 @@
       <c r="E50" s="8">
         <v>1613404799</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2547,7 +2531,7 @@
       <c r="E52" s="8">
         <v>1614614399</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2558,7 +2542,7 @@
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D53" s="8">
@@ -2567,7 +2551,7 @@
       <c r="E53" s="8">
         <v>1615219199</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2578,7 +2562,7 @@
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D54" s="8">
@@ -2587,7 +2571,7 @@
       <c r="E54" s="8">
         <v>1615219199</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2598,7 +2582,7 @@
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D55" s="8">
@@ -2607,7 +2591,7 @@
       <c r="E55" s="8">
         <v>1615219199</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="9" t="s">
         <v>110</v>
       </c>
     </row>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -418,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -462,21 +462,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -491,47 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +491,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,6 +514,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -575,23 +553,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,6 +575,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -638,181 +638,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,15 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -877,21 +868,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -902,15 +878,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,11 +899,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,6 +929,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,133 +969,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
@@ -1600,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>16</v>
@@ -1609,7 +1609,7 @@
         <v>1619481600</v>
       </c>
       <c r="E6" s="12">
-        <v>1620662399</v>
+        <v>1621871999</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
@@ -1639,7 +1639,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1659,7 +1659,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1679,7 +1679,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1739,7 +1739,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1759,7 +1759,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -1779,7 +1779,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -462,15 +462,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,8 +503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,11 +519,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,7 +559,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -553,10 +567,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,20 +604,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -638,13 +638,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,163 +794,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,21 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -878,6 +863,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,7 +895,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,15 +926,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,19 +969,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,16 +990,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,94 +1002,100 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1477,7 +1477,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1609,7 +1609,7 @@
         <v>1619481600</v>
       </c>
       <c r="E6" s="12">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
@@ -1660,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>22</v>
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>24</v>
@@ -1700,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>26</v>
@@ -1720,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>28</v>
@@ -1740,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>30</v>
@@ -1760,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>32</v>
@@ -1780,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>34</v>
@@ -1800,7 +1800,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>
@@ -1820,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>38</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="player_prop|道具表" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -462,28 +462,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,15 +492,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,22 +535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -543,7 +543,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -559,16 +559,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,13 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,19 +638,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,157 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +858,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -863,15 +887,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,15 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -911,6 +917,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,15 +947,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -957,10 +963,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,138 +975,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,9 +1484,9 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1606,10 +1615,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="12">
-        <v>1619481600</v>
+        <v>1622505600</v>
       </c>
       <c r="E6" s="12">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
@@ -2200,16 +2209,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="15">
-        <v>1619481600</v>
+        <v>1622505600</v>
       </c>
       <c r="E36" s="15">
-        <v>1620662399</v>
+        <v>1623081599</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>72</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t>id|行号</t>
   </si>
@@ -407,10 +407,58 @@
     <t>通用礼包专用--稀有</t>
   </si>
   <si>
+    <t>prop_any_dice_1</t>
+  </si>
+  <si>
+    <t>冲金鸡超级夺宝骰子（金）</t>
+  </si>
+  <si>
+    <t>prop_any_dice_2</t>
+  </si>
+  <si>
+    <t>冲金鸡超级夺宝骰子（银）</t>
+  </si>
+  <si>
+    <t>prop_super_treasure_key_1</t>
+  </si>
+  <si>
+    <t>冲金鸡超级夺宝钥匙（金）</t>
+  </si>
+  <si>
+    <t>prop_super_treasure_key_2</t>
+  </si>
+  <si>
+    <t>冲金鸡超级夺宝钥匙（银）</t>
+  </si>
+  <si>
     <t>type|类型</t>
   </si>
   <si>
     <t>|状态数据描述</t>
+  </si>
+  <si>
+    <t>super_treasure_location_1</t>
+  </si>
+  <si>
+    <t>位置信息（金）</t>
+  </si>
+  <si>
+    <t>super_treasure_location_2</t>
+  </si>
+  <si>
+    <t>位置信息（银）</t>
+  </si>
+  <si>
+    <t>super_treasure_any_dice_buy_info_1</t>
+  </si>
+  <si>
+    <t>任意骰子购买次数（金）</t>
+  </si>
+  <si>
+    <t>super_treasure_any_dice_buy_info_2</t>
+  </si>
+  <si>
+    <t>任意骰子购买次数（银）</t>
   </si>
 </sst>
 </file>
@@ -418,12 +466,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +488,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -462,29 +516,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -499,22 +530,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,14 +547,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,15 +561,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,46 +645,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,199 +680,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,24 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -887,6 +917,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,17 +947,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,13 +980,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,138 +1023,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,15 +1164,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,25 +1188,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,18 +1529,18 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:7">
@@ -1537,7 +1582,7 @@
       <c r="E2" s="9">
         <v>1591635600</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
@@ -1545,7 +1590,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1554,18 +1599,18 @@
       <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1588633200</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1589216400</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1574,10 +1619,10 @@
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1588028400</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1588611600</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1585,7 +1630,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1594,10 +1639,10 @@
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1589844600</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1590422400</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1605,7 +1650,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="7">
@@ -1618,14 +1663,14 @@
         <v>1622505600</v>
       </c>
       <c r="E6" s="12">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="7">
@@ -1634,10 +1679,10 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1599523200</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1603123199</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -1645,7 +1690,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="7">
@@ -1654,18 +1699,18 @@
       <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1599523200</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1600099199</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A9" s="4">
+    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="7">
@@ -1684,8 +1729,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A10" s="4">
+    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="7">
@@ -1704,8 +1749,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A11" s="4">
+    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="7">
@@ -1724,8 +1769,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A12" s="4">
+    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="7">
@@ -1744,8 +1789,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A13" s="4">
+    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="7">
@@ -1764,8 +1809,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A14" s="4">
+    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="7">
@@ -1784,8 +1829,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A15" s="4">
+    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="7">
@@ -1804,8 +1849,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A16" s="4">
+    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="7">
@@ -1824,8 +1869,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A17" s="4">
+    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="7">
@@ -1844,8 +1889,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:6">
-      <c r="A18" s="4">
+    <row r="18" s="5" customFormat="1" spans="1:6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1864,8 +1909,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:6">
-      <c r="A19" s="4">
+    <row r="19" s="5" customFormat="1" spans="1:6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1884,8 +1929,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:6">
-      <c r="A20" s="4">
+    <row r="20" s="5" customFormat="1" spans="1:6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1904,8 +1949,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:6">
-      <c r="A21" s="4">
+    <row r="21" s="5" customFormat="1" spans="1:6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="7">
@@ -1924,8 +1969,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:6">
-      <c r="A22" s="4">
+    <row r="22" s="5" customFormat="1" spans="1:6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="7">
@@ -1944,8 +1989,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:6">
-      <c r="A23" s="4">
+    <row r="23" s="5" customFormat="1" spans="1:6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1964,8 +2009,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:6">
-      <c r="A24" s="4">
+    <row r="24" s="5" customFormat="1" spans="1:6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1984,8 +2029,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:6">
-      <c r="A25" s="4">
+    <row r="25" s="5" customFormat="1" spans="1:6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2004,8 +2049,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A26" s="4">
+    <row r="26" s="5" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="7">
@@ -2024,8 +2069,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A27" s="4">
+    <row r="27" s="5" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="7">
@@ -2044,8 +2089,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A28" s="4">
+    <row r="28" s="5" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2064,8 +2109,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A29" s="4">
+    <row r="29" s="5" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2084,8 +2129,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A30" s="4">
+    <row r="30" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2104,8 +2149,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="4">
+    <row r="31" s="5" customFormat="1" spans="1:6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="7">
@@ -2124,8 +2169,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:6">
-      <c r="A32" s="4">
+    <row r="32" s="5" customFormat="1" spans="1:6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="7">
@@ -2144,8 +2189,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:6">
-      <c r="A33" s="4">
+    <row r="33" s="5" customFormat="1" spans="1:6">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2164,8 +2209,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:6">
-      <c r="A34" s="4">
+    <row r="34" s="5" customFormat="1" spans="1:6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2184,8 +2229,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:6">
-      <c r="A35" s="4">
+    <row r="35" s="5" customFormat="1" spans="1:6">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2204,28 +2249,28 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:6">
-      <c r="A36" s="4">
+    <row r="36" s="5" customFormat="1" spans="1:6">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="15">
-        <v>1622505600</v>
+        <v>1619481600</v>
       </c>
       <c r="E36" s="15">
-        <v>1623081599</v>
+        <v>1620662399</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="7">
@@ -2245,7 +2290,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2265,7 +2310,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2285,7 +2330,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2305,7 +2350,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="7">
@@ -2325,7 +2370,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="7">
@@ -2345,7 +2390,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2365,7 +2410,7 @@
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:6">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2385,7 +2430,7 @@
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:6">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2405,7 +2450,7 @@
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:6">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="7">
@@ -2425,7 +2470,7 @@
       </c>
     </row>
     <row r="47" ht="16.5" spans="1:6">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="7">
@@ -2445,7 +2490,7 @@
       </c>
     </row>
     <row r="48" ht="16.5" spans="1:6">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2465,7 +2510,7 @@
       </c>
     </row>
     <row r="49" ht="16.5" spans="1:6">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2485,7 +2530,7 @@
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:6">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2505,7 +2550,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="7">
@@ -2525,7 +2570,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="7">
@@ -2545,7 +2590,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2565,7 +2610,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2585,7 +2630,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2604,11 +2649,85 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="7"/>
+    <row r="56" ht="15.75" spans="1:6">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:6">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:6">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="1:6">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="7"/>
@@ -2668,15 +2787,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -2690,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -2699,11 +2818,88 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1628265599</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -466,10 +466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -515,8 +515,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,31 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -589,11 +559,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,11 +582,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,7 +638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,8 +651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,187 +686,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +906,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -921,17 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -943,6 +943,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,15 +1003,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1529,9 +1529,9 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1723,7 +1723,7 @@
         <v>1620691200</v>
       </c>
       <c r="E9" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>23</v>
@@ -1743,7 +1743,7 @@
         <v>1620691200</v>
       </c>
       <c r="E10" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>25</v>
@@ -1763,7 +1763,7 @@
         <v>1620691200</v>
       </c>
       <c r="E11" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>27</v>
@@ -1783,7 +1783,7 @@
         <v>1620691200</v>
       </c>
       <c r="E12" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>29</v>
@@ -1803,7 +1803,7 @@
         <v>1620691200</v>
       </c>
       <c r="E13" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>31</v>
@@ -1823,7 +1823,7 @@
         <v>1620691200</v>
       </c>
       <c r="E14" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>33</v>
@@ -1843,7 +1843,7 @@
         <v>1620691200</v>
       </c>
       <c r="E15" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>35</v>
@@ -1863,7 +1863,7 @@
         <v>1620691200</v>
       </c>
       <c r="E16" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>37</v>
@@ -1883,7 +1883,7 @@
         <v>1620691200</v>
       </c>
       <c r="E17" s="8">
-        <v>1621267199</v>
+        <v>1624291199</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>39</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -466,10 +466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -515,9 +515,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,9 +537,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,15 +558,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,33 +598,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,6 +629,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -643,21 +658,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -686,19 +686,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,79 +818,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,67 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,11 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +967,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,21 +1003,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,145 +1011,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1531,7 +1531,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1663,7 +1663,7 @@
         <v>1622505600</v>
       </c>
       <c r="E6" s="12">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -466,12 +466,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,16 +515,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,9 +546,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,14 +568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -582,26 +598,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,7 +622,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -622,10 +630,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,17 +659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,13 +693,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,49 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,115 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,17 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -933,6 +929,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -943,6 +963,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,41 +1005,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,10 +1018,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,138 +1030,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,6 +1211,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,9 +1539,9 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1663,7 +1673,7 @@
         <v>1622505600</v>
       </c>
       <c r="E6" s="12">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
@@ -2256,14 +2266,14 @@
       <c r="B36" s="7">
         <v>0</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="15">
         <v>1619481600</v>
       </c>
       <c r="E36" s="15">
-        <v>1620662399</v>
+        <v>1627315199</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>72</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>id|行号</t>
   </si>
@@ -431,6 +431,12 @@
     <t>冲金鸡超级夺宝钥匙（银）</t>
   </si>
   <si>
+    <t>prop_qdlb_cjq_cjj</t>
+  </si>
+  <si>
+    <t>超值礼包抽奖券_cjj</t>
+  </si>
+  <si>
     <t>type|类型</t>
   </si>
   <si>
@@ -466,8 +472,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -522,17 +528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,15 +542,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,7 +558,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,8 +611,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,47 +657,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,187 +699,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,6 +919,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -928,16 +943,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -945,9 +960,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,37 +1002,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,10 +1024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,133 +1036,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1539,9 +1545,9 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1670,10 +1676,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="12">
-        <v>1622505600</v>
+        <v>1625529600</v>
       </c>
       <c r="E6" s="12">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
@@ -2264,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>71</v>
@@ -2273,7 +2279,7 @@
         <v>1619481600</v>
       </c>
       <c r="E36" s="15">
-        <v>1627315199</v>
+        <v>1626105599</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>72</v>
@@ -2737,6 +2743,26 @@
       </c>
       <c r="F59" s="4" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="1:6">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="15">
+        <v>1619481600</v>
+      </c>
+      <c r="E60" s="15">
+        <v>1627315199</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -2819,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -2828,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -2839,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4">
         <v>1623110400</v>
@@ -2848,7 +2874,7 @@
         <v>1628265599</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
@@ -2859,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4">
         <v>1623110400</v>
@@ -2868,7 +2894,7 @@
         <v>1628265599</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
@@ -2879,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4">
         <v>1623110400</v>
@@ -2888,7 +2914,7 @@
         <v>1628265599</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
@@ -2899,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4">
         <v>1623110400</v>
@@ -2908,7 +2934,7 @@
         <v>1628265599</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>id|行号</t>
   </si>
@@ -35,6 +35,9 @@
     <t>|当前道具活动</t>
   </si>
   <si>
+    <t>|模板备注</t>
+  </si>
+  <si>
     <t>|备注</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>掉落物通用清除</t>
   </si>
   <si>
+    <t>通用掉落物</t>
+  </si>
+  <si>
     <t>prop_mfcjq</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
   </si>
   <si>
     <t>欢乐敲金蛋铜锤（V1-V3）</t>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
   </si>
   <si>
     <t>prop_silver_hammer_1</t>
@@ -274,6 +283,9 @@
     <t>超值礼包抽奖券</t>
   </si>
   <si>
+    <t>礼包抽奖券</t>
+  </si>
+  <si>
     <t>prop_hqjnh_csbox</t>
   </si>
   <si>
@@ -437,6 +449,9 @@
     <t>超值礼包抽奖券_cjj</t>
   </si>
   <si>
+    <t>礼包抽奖券_cjj</t>
+  </si>
+  <si>
     <t>type|类型</t>
   </si>
   <si>
@@ -472,9 +487,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -535,18 +550,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,28 +566,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -587,11 +587,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,21 +605,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,10 +634,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,14 +664,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,193 +708,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,10 +940,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -943,32 +981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -978,17 +990,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,6 +1022,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1024,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,10 +1057,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,126 +1069,126 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,6 +1204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1201,25 +1225,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,24 +1584,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:7">
+    <row r="1" ht="36" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,42 +1621,45 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
         <v>1591054200</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>1591635600</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>1588633200</v>
@@ -1622,18 +1668,18 @@
         <v>1589216400</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>1588028400</v>
@@ -1641,19 +1687,20 @@
       <c r="E4" s="4">
         <v>1588611600</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>1589844600</v>
@@ -1661,39 +1708,43 @@
       <c r="E5" s="4">
         <v>1590422400</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
         <v>1625529600</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>1626105599</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>1599523200</v>
@@ -1701,19 +1752,20 @@
       <c r="E7" s="4">
         <v>1603123199</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5">
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>1599523200</v>
@@ -1721,959 +1773,1027 @@
       <c r="E8" s="4">
         <v>1600099199</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E9" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E9" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E10" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E10" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1620691200</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8">
-        <v>1620691200</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:6">
+    </row>
+    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E12" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E12" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E13" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E13" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E14" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E14" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E15" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E15" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E16" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="E16" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:7">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18">
         <v>1620691200</v>
       </c>
-      <c r="E17" s="8">
-        <v>1624291199</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:6">
-      <c r="A18" s="5">
+      <c r="E17" s="18">
+        <v>1626710399</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9">
         <v>1603152000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>1603727999</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="1:6">
-      <c r="A19" s="5">
+      <c r="F18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="1:6">
-      <c r="A20" s="5">
+      <c r="F19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="1:6">
-      <c r="A21" s="5">
+      <c r="F20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:6">
-      <c r="A22" s="5">
+      <c r="F21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1609200000</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1609775999</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="15">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:7">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:6">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="F23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:7">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="1:6">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="F24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="1:7">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1604966400</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1605542399</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1606176000</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1606751999</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1607385600</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1607961599</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" s="6" customFormat="1" spans="1:7">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1607385600</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1607961599</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" s="6" customFormat="1" spans="1:7">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1607990400</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1608566399</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" s="6" customFormat="1" spans="1:7">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1608595200</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1609171199</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" s="6" customFormat="1" spans="1:7">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="20">
         <v>1609200000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E34" s="20">
         <v>1609775999</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:6">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1604966400</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1605542399</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1606176000</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1606751999</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1607385600</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1607961599</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1607385600</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1607961599</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" spans="1:6">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1607990400</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1608566399</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" spans="1:6">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="15">
-        <v>1608595200</v>
-      </c>
-      <c r="E33" s="15">
-        <v>1609171199</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="1:6">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="15">
-        <v>1609200000</v>
-      </c>
-      <c r="E34" s="15">
-        <v>1609775999</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:6">
-      <c r="A35" s="5">
+      <c r="F34" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" s="6" customFormat="1" spans="1:7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="20">
         <v>1609804800</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="20">
         <v>1610380799</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="1:6">
+      <c r="F35" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:7">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1619481600</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1626105599</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1610409600</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1610985599</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1610409600</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1610985599</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1610409600</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1610985599</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1611014400</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1611590399</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1611014400</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1611590399</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1611014400</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1611590399</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1611014400</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1611590399</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:7">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:7">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:7">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:7">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:7">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1612828800</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1613404799</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1614038400</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1614614399</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1614643200</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1615219199</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1614643200</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1615219199</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1614643200</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1615219199</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" ht="15.75" spans="1:6">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
         <v>1</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="15">
-        <v>1619481600</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1626105599</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1610409600</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1610985599</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1610409600</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1610985599</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1610409600</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1610985599</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1611014400</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1611590399</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1611014400</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1611590399</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1611014400</v>
-      </c>
-      <c r="E42" s="8">
-        <v>1611590399</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1611014400</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1611590399</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:6">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:6">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:6">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7">
-        <v>0</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:6">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:6">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:6">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:6">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1612828800</v>
-      </c>
-      <c r="E51" s="8">
-        <v>1613404799</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1614038400</v>
-      </c>
-      <c r="E52" s="8">
-        <v>1614614399</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1614643200</v>
-      </c>
-      <c r="E53" s="8">
-        <v>1615219199</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1614643200</v>
-      </c>
-      <c r="E54" s="8">
-        <v>1615219199</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="8">
-        <v>1614643200</v>
-      </c>
-      <c r="E55" s="8">
-        <v>1615219199</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" spans="1:6">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D56" s="4">
         <v>1623110400</v>
@@ -2682,18 +2802,18 @@
         <v>1628265599</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:6">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D57" s="4">
         <v>1623110400</v>
@@ -2702,18 +2822,18 @@
         <v>1628265599</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" ht="15.75" spans="1:6">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4">
         <v>1623110400</v>
@@ -2722,18 +2842,18 @@
         <v>1628265599</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:6">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D59" s="4">
         <v>1623110400</v>
@@ -2742,76 +2862,79 @@
         <v>1628265599</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" s="5" customFormat="1" spans="1:6">
-      <c r="A60" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="1:7">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="16">
         <v>1</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="15">
+      <c r="C60" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="19">
         <v>1619481600</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="19">
         <v>1627315199</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>120</v>
+      <c r="F60" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="7"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="7"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="7"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="7"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="7"/>
+      <c r="B86" s="8"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="7"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="7"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="7"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="7"/>
+      <c r="B96" s="8"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="7"/>
+      <c r="B97" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2845,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -2854,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -2865,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4">
         <v>1623110400</v>
@@ -2874,7 +2997,7 @@
         <v>1628265599</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
@@ -2885,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4">
         <v>1623110400</v>
@@ -2894,7 +3017,7 @@
         <v>1628265599</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
@@ -2905,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4">
         <v>1623110400</v>
@@ -2914,7 +3037,7 @@
         <v>1628265599</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
@@ -2925,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4">
         <v>1623110400</v>
@@ -2934,7 +3057,7 @@
         <v>1628265599</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -488,9 +488,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -543,16 +543,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,14 +580,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -587,26 +595,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,16 +611,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,8 +641,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -666,14 +674,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -681,13 +681,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,7 +714,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,37 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,139 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,32 +935,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -977,15 +945,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,6 +963,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,6 +1022,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1045,10 +1039,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,138 +1051,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,27 +1219,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,9 +1250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1587,9 +1575,9 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1713,26 +1701,26 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6">
+    <row r="6" s="5" customFormat="1" spans="1:7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13">
-        <v>1625529600</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1626105599</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="14">
+        <v>1626739200</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1627315199</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1743,7 +1731,7 @@
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="4">
@@ -1752,7 +1740,7 @@
       <c r="E7" s="4">
         <v>1603123199</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="10"/>
@@ -1764,7 +1752,7 @@
       <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4">
@@ -1773,7 +1761,7 @@
       <c r="E8" s="4">
         <v>1600099199</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="10"/>
@@ -1782,22 +1770,22 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1805,22 +1793,22 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1828,22 +1816,22 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1851,22 +1839,22 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1874,22 +1862,22 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1897,22 +1885,22 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1920,22 +1908,22 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1943,22 +1931,22 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1966,22 +1954,22 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>1620691200</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>1626710399</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2001,10 +1989,10 @@
       <c r="E18" s="9">
         <v>1603727999</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:7">
       <c r="A19" s="6">
@@ -2016,10 +2004,10 @@
       <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>1609775999</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -2037,10 +2025,10 @@
       <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>1609775999</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -2058,10 +2046,10 @@
       <c r="C21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>1609775999</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -2079,10 +2067,10 @@
       <c r="C22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>1609775999</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -2100,10 +2088,10 @@
       <c r="C23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>1609775999</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -2121,10 +2109,10 @@
       <c r="C24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>1609775999</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -2160,7 +2148,7 @@
       <c r="B26" s="8">
         <v>0</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="9">
@@ -2169,10 +2157,10 @@
       <c r="E26" s="9">
         <v>1606751999</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" s="6" customFormat="1" ht="14.25" spans="1:7">
       <c r="A27" s="6">
@@ -2181,7 +2169,7 @@
       <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="9">
@@ -2190,10 +2178,10 @@
       <c r="E27" s="9">
         <v>1606751999</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="14.25" spans="1:7">
       <c r="A28" s="6">
@@ -2202,7 +2190,7 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="9">
@@ -2211,10 +2199,10 @@
       <c r="E28" s="9">
         <v>1606751999</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" s="6" customFormat="1" ht="14.25" spans="1:7">
       <c r="A29" s="6">
@@ -2223,7 +2211,7 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="9">
@@ -2232,10 +2220,10 @@
       <c r="E29" s="9">
         <v>1606751999</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" s="6" customFormat="1" ht="16.5" spans="1:7">
       <c r="A30" s="6">
@@ -2244,7 +2232,7 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="9">
@@ -2253,10 +2241,10 @@
       <c r="E30" s="9">
         <v>1607961599</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="20"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" s="6" customFormat="1" spans="1:7">
       <c r="A31" s="6">
@@ -2274,10 +2262,10 @@
       <c r="E31" s="9">
         <v>1607961599</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" s="6" customFormat="1" spans="1:7">
       <c r="A32" s="6">
@@ -2295,10 +2283,10 @@
       <c r="E32" s="9">
         <v>1608566399</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" s="6" customFormat="1" spans="1:7">
       <c r="A33" s="6">
@@ -2310,16 +2298,16 @@
       <c r="C33" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>1608595200</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>1609171199</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" s="6" customFormat="1" spans="1:7">
       <c r="A34" s="6">
@@ -2331,16 +2319,16 @@
       <c r="C34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>1609200000</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>1609775999</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" s="6" customFormat="1" spans="1:7">
       <c r="A35" s="6">
@@ -2352,37 +2340,37 @@
       <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>1609804800</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>1610380799</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="20"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:7">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="16">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>1619481600</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>1626105599</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2540,7 +2528,7 @@
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D44" s="9">
@@ -2561,7 +2549,7 @@
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="9">
@@ -2582,7 +2570,7 @@
       <c r="B46" s="8">
         <v>0</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="9">
@@ -2603,7 +2591,7 @@
       <c r="B47" s="8">
         <v>0</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="9">
@@ -2624,7 +2612,7 @@
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D48" s="9">
@@ -2645,7 +2633,7 @@
       <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="9">
@@ -2666,7 +2654,7 @@
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="9">
@@ -2687,7 +2675,7 @@
       <c r="B51" s="8">
         <v>0</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="9">
@@ -2708,7 +2696,7 @@
       <c r="B52" s="8">
         <v>0</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="9">
@@ -2869,22 +2857,22 @@
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>1619481600</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>1627315199</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="15" t="s">
         <v>125</v>
       </c>
     </row>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="player_prop|道具表" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>id|行号</t>
   </si>
@@ -481,18 +486,20 @@
   <si>
     <t>任意骰子购买次数（银）</t>
   </si>
+  <si>
+    <t>prop_grade</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,13 +522,13 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -543,151 +550,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,198 +592,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -933,263 +631,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1204,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1252,63 +708,22 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1566,21 +981,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="4" customWidth="1"/>
@@ -1590,7 +1004,7 @@
     <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1639,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1659,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1680,7 +1094,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1701,7 +1115,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:7">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1712,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="E6" s="14">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>
@@ -1724,7 +1138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1745,7 +1159,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1766,7 +1180,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1789,7 +1203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1812,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1835,7 +1249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1858,7 +1272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1881,7 +1295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1904,7 +1318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1927,7 +1341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1950,7 +1364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1973,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:7">
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1994,7 +1408,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2015,7 +1429,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2036,7 +1450,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:7">
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2057,7 +1471,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:7">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2078,7 +1492,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:7">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2099,7 +1513,7 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:7">
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2120,7 +1534,7 @@
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:7">
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2141,7 +1555,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="14.25" spans="1:7">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2162,7 +1576,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="14.25" spans="1:7">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2183,7 +1597,7 @@
       </c>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="14.25" spans="1:7">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2204,7 +1618,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="14.25" spans="1:7">
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2225,7 +1639,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" s="6" customFormat="1" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2246,7 +1660,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:7">
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2267,7 +1681,7 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:7">
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2288,7 +1702,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:7">
+    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2309,7 +1723,7 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:7">
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2330,7 +1744,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:7">
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2351,7 +1765,7 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:7">
+    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2374,7 +1788,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2395,7 +1809,7 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2416,7 +1830,7 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2437,7 +1851,7 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2458,7 +1872,7 @@
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2479,7 +1893,7 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2500,7 +1914,7 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2521,7 +1935,7 @@
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" ht="16.5" spans="1:7">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2542,7 +1956,7 @@
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" ht="16.5" spans="1:7">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2563,7 +1977,7 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" ht="16.5" spans="1:7">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2584,7 +1998,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" ht="16.5" spans="1:7">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2605,7 +2019,7 @@
       </c>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" ht="16.5" spans="1:7">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2626,7 +2040,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" ht="16.5" spans="1:7">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2647,7 +2061,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" ht="16.5" spans="1:7">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2668,7 +2082,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2689,7 +2103,7 @@
       </c>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2710,7 +2124,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2731,7 +2145,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2752,7 +2166,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2773,7 +2187,7 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" ht="15.75" spans="1:6">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2793,7 +2207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" ht="15.75" spans="1:6">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2813,7 +2227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" ht="15.75" spans="1:6">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2833,7 +2247,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="1:6">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2853,7 +2267,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:7">
+    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2876,71 +2290,87 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="2:2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1627344000</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1627919999</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="8"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="8"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
@@ -2948,7 +2378,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.95" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2398,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2988,7 +2418,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3008,7 +2438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3028,7 +2458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3049,7 +2479,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -990,8 +990,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="E6" s="14">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>24</v>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>27</v>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>29</v>
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>31</v>
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>33</v>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>35</v>
@@ -1323,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>37</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>39</v>
@@ -1369,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>41</v>
@@ -1776,10 +1776,10 @@
         <v>74</v>
       </c>
       <c r="D36" s="18">
-        <v>1619481600</v>
+        <v>1627948800</v>
       </c>
       <c r="E36" s="18">
-        <v>1626105599</v>
+        <v>1628524799</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>75</v>
@@ -2301,10 +2301,10 @@
         <v>136</v>
       </c>
       <c r="D61" s="14">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="E61" s="14">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>137</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -990,8 +990,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="E6" s="14">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>id|行号</t>
   </si>
@@ -991,7 +991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="E6" s="14">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,6 +162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,6 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -206,6 +209,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,6 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -511,11 +517,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -534,24 +542,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1126,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="E6" s="14">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>id|行号</t>
   </si>
@@ -1002,8 +1002,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,16 +1197,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E9" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1220,16 +1220,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E10" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>28</v>
@@ -1243,16 +1243,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E11" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>30</v>
@@ -1266,16 +1266,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E12" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>32</v>
@@ -1289,16 +1289,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E13" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -1312,16 +1312,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E14" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
@@ -1335,16 +1335,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E15" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -1358,16 +1358,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E16" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
@@ -1381,16 +1381,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="14">
-        <v>1620691200</v>
+        <v>1630368000</v>
       </c>
       <c r="E17" s="14">
-        <v>1626710399</v>
+        <v>1630943999</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>42</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1002,8 +1002,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="N46:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,16 +1782,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="18">
-        <v>1627948800</v>
+        <v>1630972800</v>
       </c>
       <c r="E36" s="18">
-        <v>1628524799</v>
+        <v>1631548799</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>75</v>
@@ -2290,10 +2290,10 @@
         <v>123</v>
       </c>
       <c r="D60" s="18">
-        <v>1619481600</v>
+        <v>1630972800</v>
       </c>
       <c r="E60" s="18">
-        <v>1627315199</v>
+        <v>1631548799</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>124</v>
@@ -2313,10 +2313,10 @@
         <v>136</v>
       </c>
       <c r="D61" s="14">
-        <v>1627948800</v>
+        <v>1630972800</v>
       </c>
       <c r="E61" s="14">
-        <v>1628524799</v>
+        <v>1631548799</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>137</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1002,8 +1002,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O46" sqref="N46:O46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,10 +1203,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E9" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1226,10 +1226,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E10" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>28</v>
@@ -1249,10 +1249,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E11" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>30</v>
@@ -1272,10 +1272,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E12" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>32</v>
@@ -1295,10 +1295,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E13" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -1318,10 +1318,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E14" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
@@ -1341,10 +1341,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E15" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -1364,10 +1364,10 @@
         <v>39</v>
       </c>
       <c r="D16" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E16" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
@@ -1387,10 +1387,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="14">
-        <v>1630368000</v>
+        <v>1631577600</v>
       </c>
       <c r="E17" s="14">
-        <v>1630943999</v>
+        <v>1632153599</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>42</v>
@@ -1782,13 +1782,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="18">
-        <v>1630972800</v>
+        <v>1631577600</v>
       </c>
       <c r="E36" s="18">
         <v>1631548799</v>
@@ -2290,7 +2290,7 @@
         <v>123</v>
       </c>
       <c r="D60" s="18">
-        <v>1630972800</v>
+        <v>1631577600</v>
       </c>
       <c r="E60" s="18">
         <v>1631548799</v>
@@ -2313,7 +2313,7 @@
         <v>136</v>
       </c>
       <c r="D61" s="14">
-        <v>1630972800</v>
+        <v>1631577600</v>
       </c>
       <c r="E61" s="14">
         <v>1631548799</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1138,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="E6" s="14">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>id|行号</t>
   </si>
@@ -498,6 +498,18 @@
   </si>
   <si>
     <t>积分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_xiyou</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_shishi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_chuanshuo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1138,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="14">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="E6" s="14">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>
@@ -1203,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E9" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1226,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E10" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>28</v>
@@ -1249,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E11" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>30</v>
@@ -1272,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E12" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>32</v>
@@ -1295,10 +1307,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E13" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -1318,10 +1330,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E14" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
@@ -1341,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E15" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -1364,10 +1376,10 @@
         <v>39</v>
       </c>
       <c r="D16" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E16" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
@@ -1387,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E17" s="14">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>42</v>
@@ -2313,17 +2325,65 @@
         <v>136</v>
       </c>
       <c r="D61" s="14">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="E61" s="14">
-        <v>1631548799</v>
+        <v>1634572799</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="8"/>
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1633996800</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1634572799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="14">
+        <v>1633996800</v>
+      </c>
+      <c r="E63" s="14">
+        <v>1634572799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="14">
+        <v>1633996800</v>
+      </c>
+      <c r="E64" s="14">
+        <v>1634572799</v>
+      </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,11 +1149,11 @@
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14">
-        <v>1633996800</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1634572799</v>
+      <c r="D6" s="18">
+        <v>1634601600</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1635177599</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>id|行号</t>
   </si>
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="E6" s="18">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>
@@ -2325,10 +2325,10 @@
         <v>136</v>
       </c>
       <c r="D61" s="14">
-        <v>1633996800</v>
+        <v>1635206400</v>
       </c>
       <c r="E61" s="14">
-        <v>1634572799</v>
+        <v>1635782399</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>137</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>id|行号</t>
   </si>
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2345,10 +2345,10 @@
         <v>138</v>
       </c>
       <c r="D62" s="14">
-        <v>1633996800</v>
+        <v>1636416000</v>
       </c>
       <c r="E62" s="14">
-        <v>1634572799</v>
+        <v>1637596799</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2362,10 +2362,10 @@
         <v>139</v>
       </c>
       <c r="D63" s="14">
-        <v>1633996800</v>
+        <v>1636416000</v>
       </c>
       <c r="E63" s="14">
-        <v>1634572799</v>
+        <v>1637596799</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2379,10 +2379,10 @@
         <v>140</v>
       </c>
       <c r="D64" s="14">
-        <v>1633996800</v>
+        <v>1636416000</v>
       </c>
       <c r="E64" s="14">
-        <v>1634572799</v>
+        <v>1637596799</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="D61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="E6" s="18">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>
@@ -2324,11 +2324,11 @@
       <c r="C61" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="14">
-        <v>1635206400</v>
-      </c>
-      <c r="E61" s="14">
-        <v>1635782399</v>
+      <c r="D61" s="18">
+        <v>1637625600</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1638201599</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>137</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="D61:E61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E9" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1238,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E10" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>28</v>
@@ -1261,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E11" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>30</v>
@@ -1284,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E12" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>32</v>
@@ -1307,10 +1307,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E13" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -1330,10 +1330,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E14" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
@@ -1353,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E15" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -1376,10 +1376,10 @@
         <v>39</v>
       </c>
       <c r="D16" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E16" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
@@ -1399,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="14">
-        <v>1633996800</v>
+        <v>1638230400</v>
       </c>
       <c r="E17" s="14">
-        <v>1634572799</v>
+        <v>1638806399</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>42</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="E6" s="18">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E9" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1238,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E10" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>28</v>
@@ -1261,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E11" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>30</v>
@@ -1284,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E12" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>32</v>
@@ -1307,10 +1307,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E13" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -1330,10 +1330,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E14" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
@@ -1353,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E15" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -1376,10 +1376,10 @@
         <v>39</v>
       </c>
       <c r="D16" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E16" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
@@ -1399,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="14">
-        <v>1638230400</v>
+        <v>1639440000</v>
       </c>
       <c r="E17" s="14">
-        <v>1638806399</v>
+        <v>1640015999</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>42</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2345,10 +2345,10 @@
         <v>138</v>
       </c>
       <c r="D62" s="14">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="E62" s="14">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2362,10 +2362,10 @@
         <v>139</v>
       </c>
       <c r="D63" s="14">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="E63" s="14">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2379,10 +2379,10 @@
         <v>140</v>
       </c>
       <c r="D64" s="14">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="E64" s="14">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="E6" s="18">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E9" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>25</v>
@@ -1238,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E10" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>28</v>
@@ -1261,10 +1261,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E11" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>30</v>
@@ -1284,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E12" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>32</v>
@@ -1307,10 +1307,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E13" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -1330,10 +1330,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E14" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>36</v>
@@ -1353,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E15" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -1376,10 +1376,10 @@
         <v>39</v>
       </c>
       <c r="D16" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E16" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>40</v>
@@ -1399,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="14">
-        <v>1639440000</v>
+        <v>1641254400</v>
       </c>
       <c r="E17" s="14">
-        <v>1640015999</v>
+        <v>1641830399</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>42</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>id|行号</t>
   </si>
@@ -1015,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="E6" s="18">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>

--- a/config_Release/prop_clear_server.xlsx
+++ b/config_Release/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="18">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="E6" s="18">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>18</v>
